--- a/biology/Zoologie/Hormuridae/Hormuridae.xlsx
+++ b/biology/Zoologie/Hormuridae/Hormuridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hormuridae sont une famille de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les scorpions de cette famille se rencontrent en Asie du Sud-Est et en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les scorpions de cette famille se rencontrent en Asie du Sud-Est et en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille sont généralement considérées comme inoffensives pour l'Homme avec des venins des plus faibles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille sont généralement considérées comme inoffensives pour l'Homme avec des venins des plus faibles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (14/06/2020)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (14/06/2020) :
 Cheloctonus Pocock, 1892
 Chiromachetes Pocock, 1899
 Chiromachus Pocock, 1893
@@ -587,7 +605,7 @@
 Opisthacanthus Peters, 1861
 Palaeocheloctonus Lourenço, 1996
 Tibetiomachus Lourenço &amp; Qi, 2006
-et[2]
+et
 † Protoischnurus Carvalho &amp; Lourenço, 2001</t>
         </is>
       </c>
@@ -616,11 +634,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été connu par les passé sous le nom des Ischnurinae puis depuis 1989 des Ischnuridae[3]. Ce nom est basé sur le genre Ischnurus synonyme de Liocheles.
-Fraser décrit en 1957 une sous-famille de zygoptères, les Ischnurinae, ayant pour genre type Ischnura[4] créant ainsi une homonymie. Pour supprimer cette homonymie, il est proposé dans un premier temps, de changer les Ischnurinae Fraser, 1957 en Ischnurainae[5]. Mais le nom Ischnurinae étant très utilisé en odonatologie, dans un deuxième temps, il est proposé le nom Liochelidae pour remplacer les Ischnuridae Simon, 1879[6].
-Par la suite, il est apparu que les Liochelidae sont un synonyme récent des Hormuridae[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été connu par les passé sous le nom des Ischnurinae puis depuis 1989 des Ischnuridae. Ce nom est basé sur le genre Ischnurus synonyme de Liocheles.
+Fraser décrit en 1957 une sous-famille de zygoptères, les Ischnurinae, ayant pour genre type Ischnura créant ainsi une homonymie. Pour supprimer cette homonymie, il est proposé dans un premier temps, de changer les Ischnurinae Fraser, 1957 en Ischnurainae. Mais le nom Ischnurinae étant très utilisé en odonatologie, dans un deuxième temps, il est proposé le nom Liochelidae pour remplacer les Ischnuridae Simon, 1879.
+Par la suite, il est apparu que les Liochelidae sont un synonyme récent des Hormuridae.
 </t>
         </is>
       </c>
@@ -649,9 +669,11 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des espèces de cette famille sont élevées en captivité et adoptées comme NAC. Ce sont les grands scorpions du genre Hadogenes, mais aussi certaines espèces des genres Iomachus et Opisthacanthus[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des espèces de cette famille sont élevées en captivité et adoptées comme NAC. Ce sont les grands scorpions du genre Hadogenes, mais aussi certaines espèces des genres Iomachus et Opisthacanthus.
 </t>
         </is>
       </c>
@@ -680,7 +702,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Laurie, 1896 : Further notes on the anatomy and developpment of scorpions and their bearing on the classification of the order. Annals and Magazine of Natural History, sér. 6, vol. 18, p. 121–133 (texte intégral).</t>
         </is>
